--- a/Code/Results/Cases/Case_1_152/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_152/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.66512294197741</v>
+        <v>16.06960561832376</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.929412094290038</v>
+        <v>5.489965428507356</v>
       </c>
       <c r="E2">
-        <v>13.24526027873704</v>
+        <v>19.99195777004262</v>
       </c>
       <c r="F2">
-        <v>20.49157698477469</v>
+        <v>27.00008557441588</v>
       </c>
       <c r="G2">
-        <v>2.096072905960407</v>
+        <v>3.649689992866735</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.03936981767045</v>
+        <v>10.61424483852671</v>
       </c>
       <c r="L2">
-        <v>5.588260789847255</v>
+        <v>8.257987688500972</v>
       </c>
       <c r="M2">
-        <v>9.865123437698152</v>
+        <v>14.94732392085699</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.68823869617391</v>
+        <v>24.17652224851807</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.13476480105011</v>
+        <v>15.99587240615722</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.815835586569476</v>
+        <v>5.449532862029759</v>
       </c>
       <c r="E3">
-        <v>13.4169040510401</v>
+        <v>20.05554877090843</v>
       </c>
       <c r="F3">
-        <v>20.11159361232059</v>
+        <v>27.0161225467256</v>
       </c>
       <c r="G3">
-        <v>2.101129480968002</v>
+        <v>3.651601964372954</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.43612483328724</v>
+        <v>10.3388240298597</v>
       </c>
       <c r="L3">
-        <v>5.400410031151281</v>
+        <v>8.240403995425645</v>
       </c>
       <c r="M3">
-        <v>9.604517656604274</v>
+        <v>14.93224943701961</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.6120564443067</v>
+        <v>24.23659452891055</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.80316842696194</v>
+        <v>15.95350820909785</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.744294768376579</v>
+        <v>5.424161734941042</v>
       </c>
       <c r="E4">
-        <v>13.52619669927305</v>
+        <v>20.09674841339667</v>
       </c>
       <c r="F4">
-        <v>19.89296572017664</v>
+        <v>27.03296079563964</v>
       </c>
       <c r="G4">
-        <v>2.104332598462187</v>
+        <v>3.652838817959486</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.0509136873755</v>
+        <v>10.16419110774619</v>
       </c>
       <c r="L4">
-        <v>5.283889362378581</v>
+        <v>8.230738048883163</v>
       </c>
       <c r="M4">
-        <v>9.445036540299487</v>
+        <v>14.92512314534026</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.57905628127284</v>
+        <v>24.27869603626746</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.66674324530849</v>
+        <v>15.93698975145193</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.714709641703532</v>
+        <v>5.413689269901233</v>
       </c>
       <c r="E5">
-        <v>13.57172394615988</v>
+        <v>20.11408078905453</v>
       </c>
       <c r="F5">
-        <v>19.80758466597054</v>
+        <v>27.04157896035798</v>
       </c>
       <c r="G5">
-        <v>2.105663185536544</v>
+        <v>3.653358710883375</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.89032791191307</v>
+        <v>10.09170012450013</v>
       </c>
       <c r="L5">
-        <v>5.236176249056671</v>
+        <v>8.227086125390514</v>
       </c>
       <c r="M5">
-        <v>9.380264814456966</v>
+        <v>14.92275759979172</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.56896426341977</v>
+        <v>24.29716186997769</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.64401793219364</v>
+        <v>15.93429227835597</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.70977165667242</v>
+        <v>5.411942366641884</v>
       </c>
       <c r="E6">
-        <v>13.5793437216224</v>
+        <v>20.11699166574055</v>
       </c>
       <c r="F6">
-        <v>19.79363168635231</v>
+        <v>27.04311601856584</v>
       </c>
       <c r="G6">
-        <v>2.105885671859975</v>
+        <v>3.653445998373817</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.86344858259506</v>
+        <v>10.07958483656189</v>
       </c>
       <c r="L6">
-        <v>5.228241682991836</v>
+        <v>8.226497138606868</v>
       </c>
       <c r="M6">
-        <v>9.36952522006869</v>
+        <v>14.92239740772105</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.56748792140367</v>
+        <v>24.30030709254221</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.80133351849324</v>
+        <v>15.95328239995063</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.743897490555287</v>
+        <v>5.424021035466962</v>
       </c>
       <c r="E7">
-        <v>13.52680667783183</v>
+        <v>20.09697996264054</v>
       </c>
       <c r="F7">
-        <v>19.89179919729728</v>
+        <v>27.03306991433585</v>
       </c>
       <c r="G7">
-        <v>2.104350440102643</v>
+        <v>3.652845765114539</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.04876241604275</v>
+        <v>10.16321875486409</v>
       </c>
       <c r="L7">
-        <v>5.283246725916293</v>
+        <v>8.230687632110179</v>
       </c>
       <c r="M7">
-        <v>9.444162009123982</v>
+        <v>14.92508905873581</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.57890673557008</v>
+        <v>24.27893977609877</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.48360407429175</v>
+        <v>16.04358745808596</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.890638175665887</v>
+        <v>5.476139623666732</v>
       </c>
       <c r="E8">
-        <v>13.30363803434431</v>
+        <v>20.01343763308261</v>
       </c>
       <c r="F8">
-        <v>20.35752649561976</v>
+        <v>27.00416334442432</v>
       </c>
       <c r="G8">
-        <v>2.097796341788126</v>
+        <v>3.650336216553197</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.83450995159185</v>
+        <v>10.52046203494175</v>
       </c>
       <c r="L8">
-        <v>5.523772914499731</v>
+        <v>8.251691900580097</v>
       </c>
       <c r="M8">
-        <v>9.775205699150094</v>
+        <v>14.94168613251671</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.65904814484163</v>
+        <v>24.19615084519073</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.76670945008995</v>
+        <v>16.24309566797308</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.163191366337254</v>
+        <v>5.573861584000065</v>
       </c>
       <c r="E9">
-        <v>12.89659369210966</v>
+        <v>19.86664169152753</v>
       </c>
       <c r="F9">
-        <v>21.38594316113537</v>
+        <v>27.00298472004146</v>
       </c>
       <c r="G9">
-        <v>2.085697652979792</v>
+        <v>3.645911787766255</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.25365239879179</v>
+        <v>11.17469332811047</v>
       </c>
       <c r="L9">
-        <v>5.998939226020452</v>
+        <v>8.301722895108728</v>
       </c>
       <c r="M9">
-        <v>10.42510244453521</v>
+        <v>14.99098847548082</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.93010270346131</v>
+        <v>24.07530854811443</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.66749470789796</v>
+        <v>16.40240782205559</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.353095876625366</v>
+        <v>5.642722723291135</v>
       </c>
       <c r="E10">
-        <v>12.61565921748561</v>
+        <v>19.76908209347318</v>
       </c>
       <c r="F10">
-        <v>22.20934413426041</v>
+        <v>27.03594357769093</v>
       </c>
       <c r="G10">
-        <v>2.077229189786761</v>
+        <v>3.6429608554369</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.21778551164223</v>
+        <v>11.62410590861373</v>
       </c>
       <c r="L10">
-        <v>6.451111731811496</v>
+        <v>8.3436879352435</v>
       </c>
       <c r="M10">
-        <v>10.89870562995203</v>
+        <v>15.03722244657734</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.20458126945409</v>
+        <v>24.01197171746167</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.06683336845241</v>
+        <v>16.47743299916939</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.437049411466326</v>
+        <v>5.673370132035898</v>
       </c>
       <c r="E11">
-        <v>12.49167816758032</v>
+        <v>19.72691513951083</v>
       </c>
       <c r="F11">
-        <v>22.59806482705658</v>
+        <v>27.05825773411543</v>
       </c>
       <c r="G11">
-        <v>2.073458759790543</v>
+        <v>3.641682804069076</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.63874278526395</v>
+        <v>11.82122223161056</v>
       </c>
       <c r="L11">
-        <v>6.647721593177462</v>
+        <v>8.363866841860879</v>
       </c>
       <c r="M11">
-        <v>11.11252566700971</v>
+        <v>15.06038071077968</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.34695615247535</v>
+        <v>23.98870903653292</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.21646604085405</v>
+        <v>16.50619109385529</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.468476174349548</v>
+        <v>5.684874517637495</v>
       </c>
       <c r="E12">
-        <v>12.44527022569939</v>
+        <v>19.71126445556815</v>
       </c>
       <c r="F12">
-        <v>22.74724662584154</v>
+        <v>27.0677563572706</v>
       </c>
       <c r="G12">
-        <v>2.072041969379741</v>
+        <v>3.641208040752569</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.79557916064995</v>
+        <v>11.89477178655833</v>
       </c>
       <c r="L12">
-        <v>6.720868270326241</v>
+        <v>8.371660706813785</v>
       </c>
       <c r="M12">
-        <v>11.19320284500795</v>
+        <v>15.06945129442012</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.40347444775288</v>
+        <v>23.98069971286947</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.18431181069026</v>
+        <v>16.4999823759533</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.461724288558214</v>
+        <v>5.682401397148634</v>
       </c>
       <c r="E13">
-        <v>12.45524106968924</v>
+        <v>19.71462103042676</v>
       </c>
       <c r="F13">
-        <v>22.71503033081357</v>
+        <v>27.06566409158013</v>
       </c>
       <c r="G13">
-        <v>2.072346624911961</v>
+        <v>3.641309880762074</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.76191643146475</v>
+        <v>11.87898084494685</v>
       </c>
       <c r="L13">
-        <v>6.705172811068767</v>
+        <v>8.369975439566634</v>
       </c>
       <c r="M13">
-        <v>11.17584140230504</v>
+        <v>15.06748447008438</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.39118509514368</v>
+        <v>23.98238907056232</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.07917600754648</v>
+        <v>16.47979209022289</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.439642294858053</v>
+        <v>5.674318652057846</v>
       </c>
       <c r="E14">
-        <v>12.4878493607104</v>
+        <v>19.72562120179586</v>
       </c>
       <c r="F14">
-        <v>22.61029868031947</v>
+        <v>27.059018200215</v>
       </c>
       <c r="G14">
-        <v>2.07334198405179</v>
+        <v>3.641643560742425</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.65169749787865</v>
+        <v>11.82729534595459</v>
       </c>
       <c r="L14">
-        <v>6.653765551020645</v>
+        <v>8.364505014085131</v>
       </c>
       <c r="M14">
-        <v>11.11916918410606</v>
+        <v>15.06112094743925</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.35155328502159</v>
+        <v>23.98803406763415</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.01456816223524</v>
+        <v>16.46746964916573</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.426068549880916</v>
+        <v>5.66935446106848</v>
       </c>
       <c r="E15">
-        <v>12.50789310151124</v>
+        <v>19.73240037349471</v>
       </c>
       <c r="F15">
-        <v>22.54640407111978</v>
+        <v>27.05508383841571</v>
       </c>
       <c r="G15">
-        <v>2.073953077114223</v>
+        <v>3.641849147046808</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.58384953898202</v>
+        <v>11.79549285149755</v>
       </c>
       <c r="L15">
-        <v>6.622107250070758</v>
+        <v>8.361173965035533</v>
       </c>
       <c r="M15">
-        <v>11.08441620152083</v>
+        <v>15.05726216814543</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.3276192351311</v>
+        <v>23.99159598856398</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.64117910772588</v>
+        <v>16.3975544774483</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.347559043893695</v>
+        <v>5.640705889361009</v>
       </c>
       <c r="E16">
-        <v>12.62383780246408</v>
+        <v>19.77188223448398</v>
       </c>
       <c r="F16">
-        <v>22.18422047045456</v>
+        <v>27.03463229424246</v>
       </c>
       <c r="G16">
-        <v>2.077477178259867</v>
+        <v>3.643045669947981</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.18991685856546</v>
+        <v>11.61107292603508</v>
       </c>
       <c r="L16">
-        <v>6.438080006026875</v>
+        <v>8.342390766197218</v>
       </c>
       <c r="M16">
-        <v>10.88469416092379</v>
+        <v>15.03575138889448</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.19563658057513</v>
+        <v>24.01360381410601</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.40937637622886</v>
+        <v>16.35530407135228</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.29876154066606</v>
+        <v>5.622954684498573</v>
       </c>
       <c r="E17">
-        <v>12.69593813332654</v>
+        <v>19.79666908233567</v>
       </c>
       <c r="F17">
-        <v>21.96561842310574</v>
+        <v>27.02395851088659</v>
       </c>
       <c r="G17">
-        <v>2.079659534796589</v>
+        <v>3.643796145254993</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.94370693122016</v>
+        <v>11.49603104637447</v>
       </c>
       <c r="L17">
-        <v>6.322857810216038</v>
+        <v>8.331143946474151</v>
       </c>
       <c r="M17">
-        <v>10.76171144171315</v>
+        <v>15.02309653728487</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.11921757723431</v>
+        <v>24.02852759951986</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.2750715999</v>
+        <v>16.33124428604005</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.270466077960332</v>
+        <v>5.612681070693036</v>
       </c>
       <c r="E18">
-        <v>12.73776811732482</v>
+        <v>19.81113423130384</v>
       </c>
       <c r="F18">
-        <v>21.84121943419794</v>
+        <v>27.01850863065424</v>
       </c>
       <c r="G18">
-        <v>2.080922529126425</v>
+        <v>3.644233857717029</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.80043525270668</v>
+        <v>11.42917484184096</v>
       </c>
       <c r="L18">
-        <v>6.255729510585105</v>
+        <v>8.324777807744987</v>
       </c>
       <c r="M18">
-        <v>10.69082518163487</v>
+        <v>15.01601822688923</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.07690702843099</v>
+        <v>24.03763363173513</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.22943332526329</v>
+        <v>16.323140123108</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.26084695479517</v>
+        <v>5.609191792103887</v>
       </c>
       <c r="E19">
-        <v>12.75199306980374</v>
+        <v>19.81606771529568</v>
       </c>
       <c r="F19">
-        <v>21.7993310485748</v>
+        <v>27.01678190397906</v>
       </c>
       <c r="G19">
-        <v>2.081351513434009</v>
+        <v>3.644383101648598</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.75164239718486</v>
+        <v>11.40642177486768</v>
       </c>
       <c r="L19">
-        <v>6.232854109329407</v>
+        <v>8.322640106882282</v>
       </c>
       <c r="M19">
-        <v>10.66680046418849</v>
+        <v>15.01365619459634</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.06286100896104</v>
+        <v>24.04080642001848</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.43415408499428</v>
+        <v>16.35977684091456</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.303979869699186</v>
+        <v>5.624850938534634</v>
       </c>
       <c r="E20">
-        <v>12.68822575244203</v>
+        <v>19.79400891960266</v>
       </c>
       <c r="F20">
-        <v>21.98875119873476</v>
+        <v>27.02502342886527</v>
       </c>
       <c r="G20">
-        <v>2.07942642158782</v>
+        <v>3.643715629131695</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.97008831469206</v>
+        <v>11.50834887879225</v>
       </c>
       <c r="L20">
-        <v>6.335211958223039</v>
+        <v>8.332330585553731</v>
       </c>
       <c r="M20">
-        <v>10.7748191155861</v>
+        <v>15.02442295771755</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.12718176396699</v>
+        <v>24.02688487109769</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.11010065558257</v>
+        <v>16.48571318830869</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.44613831471138</v>
+        <v>5.676695523383597</v>
       </c>
       <c r="E21">
-        <v>12.47825689506282</v>
+        <v>19.72238159076426</v>
       </c>
       <c r="F21">
-        <v>22.64100752983783</v>
+        <v>27.06094183463517</v>
       </c>
       <c r="G21">
-        <v>2.07304933124206</v>
+        <v>3.641545301328228</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.68414147318278</v>
+        <v>11.84250663058664</v>
       </c>
       <c r="L21">
-        <v>6.668900502255637</v>
+        <v>8.366107703320216</v>
       </c>
       <c r="M21">
-        <v>11.13582353753708</v>
+        <v>15.06298193653284</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.3631227776955</v>
+        <v>23.98635427787389</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.54258529728945</v>
+        <v>16.57003706149764</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.536916212340018</v>
+        <v>5.709987893065671</v>
       </c>
       <c r="E22">
-        <v>12.34417991441224</v>
+        <v>19.67741628939232</v>
       </c>
       <c r="F22">
-        <v>23.07882392047622</v>
+        <v>27.09052679199828</v>
       </c>
       <c r="G22">
-        <v>2.068945185270466</v>
+        <v>3.640180511281411</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.13582212368787</v>
+        <v>12.05450446003604</v>
       </c>
       <c r="L22">
-        <v>6.879380842840262</v>
+        <v>8.389070204987249</v>
       </c>
       <c r="M22">
-        <v>11.37003782139147</v>
+        <v>15.0899348582257</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.53253850808488</v>
+        <v>23.96452733418437</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.31263413408487</v>
+        <v>16.52485382152488</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.488665682037563</v>
+        <v>5.692274397688562</v>
       </c>
       <c r="E23">
-        <v>12.41545367681923</v>
+        <v>19.70124650088542</v>
       </c>
       <c r="F23">
-        <v>22.84411475503994</v>
+        <v>27.0741792690541</v>
       </c>
       <c r="G23">
-        <v>2.071130095827171</v>
+        <v>3.640904031825513</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.89613246223821</v>
+        <v>11.94195475061272</v>
       </c>
       <c r="L23">
-        <v>6.767737880579458</v>
+        <v>8.376734877069886</v>
       </c>
       <c r="M23">
-        <v>11.2452083024805</v>
+        <v>15.07539084925948</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.44069893580058</v>
+        <v>23.97574970317759</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.4229553100533</v>
+        <v>16.35775398222737</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.301621413087381</v>
+        <v>5.623993854260383</v>
       </c>
       <c r="E24">
-        <v>12.69171134015631</v>
+        <v>19.79521090981549</v>
       </c>
       <c r="F24">
-        <v>21.97828888533617</v>
+        <v>27.02453984036512</v>
       </c>
       <c r="G24">
-        <v>2.079531786069078</v>
+        <v>3.643752010986175</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.95816665301147</v>
+        <v>11.50278221723841</v>
       </c>
       <c r="L24">
-        <v>6.32962940617244</v>
+        <v>8.33179379483488</v>
       </c>
       <c r="M24">
-        <v>10.76889369816872</v>
+        <v>15.02382266864053</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.12357610405355</v>
+        <v>24.02762590980723</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.42642770852289</v>
+        <v>16.18681644787868</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.091203126783885</v>
+        <v>5.547926169633889</v>
       </c>
       <c r="E25">
-        <v>13.00348989735997</v>
+        <v>19.90454010248413</v>
       </c>
       <c r="F25">
-        <v>21.09562299540337</v>
+        <v>26.99735844433715</v>
       </c>
       <c r="G25">
-        <v>2.08889387106056</v>
+        <v>3.647055856390789</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.88327264073373</v>
+        <v>11.00299413224543</v>
       </c>
       <c r="L25">
-        <v>5.860723362783173</v>
+        <v>8.287259732484056</v>
       </c>
       <c r="M25">
-        <v>10.24967808789063</v>
+        <v>14.97587697182565</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.84395139019134</v>
+        <v>24.10354032586395</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_152/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_152/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.06960561832376</v>
+        <v>12.66512294197731</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.489965428507356</v>
+        <v>4.929412094290102</v>
       </c>
       <c r="E2">
-        <v>19.99195777004262</v>
+        <v>13.24526027873664</v>
       </c>
       <c r="F2">
-        <v>27.00008557441588</v>
+        <v>20.49157698477469</v>
       </c>
       <c r="G2">
-        <v>3.649689992866735</v>
+        <v>2.096072905960405</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.61424483852671</v>
+        <v>14.03936981767032</v>
       </c>
       <c r="L2">
-        <v>8.257987688500972</v>
+        <v>5.588260789847277</v>
       </c>
       <c r="M2">
-        <v>14.94732392085699</v>
+        <v>9.865123437698095</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>24.17652224851807</v>
+        <v>16.68823869617391</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.99587240615722</v>
+        <v>12.13476480105011</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.449532862029759</v>
+        <v>4.815835586569464</v>
       </c>
       <c r="E3">
-        <v>20.05554877090843</v>
+        <v>13.4169040510401</v>
       </c>
       <c r="F3">
-        <v>27.0161225467256</v>
+        <v>20.11159361232058</v>
       </c>
       <c r="G3">
-        <v>3.651601964372954</v>
+        <v>2.101129480968135</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.3388240298597</v>
+        <v>13.43612483328725</v>
       </c>
       <c r="L3">
-        <v>8.240403995425645</v>
+        <v>5.400410031151328</v>
       </c>
       <c r="M3">
-        <v>14.93224943701961</v>
+        <v>9.604517656604255</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>24.23659452891055</v>
+        <v>16.61205644430667</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.95350820909785</v>
+        <v>11.80316842696187</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.424161734941042</v>
+        <v>4.744294768376287</v>
       </c>
       <c r="E4">
-        <v>20.09674841339667</v>
+        <v>13.52619669927312</v>
       </c>
       <c r="F4">
-        <v>27.03296079563964</v>
+        <v>19.89296572017644</v>
       </c>
       <c r="G4">
-        <v>3.652838817959486</v>
+        <v>2.104332598462321</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.16419110774619</v>
+        <v>13.05091368737566</v>
       </c>
       <c r="L4">
-        <v>8.230738048883163</v>
+        <v>5.283889362378559</v>
       </c>
       <c r="M4">
-        <v>14.92512314534026</v>
+        <v>9.445036540299448</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>24.27869603626746</v>
+        <v>16.57905628127254</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.93698975145193</v>
+        <v>11.66674324530848</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.413689269901233</v>
+        <v>4.714709641703632</v>
       </c>
       <c r="E5">
-        <v>20.11408078905453</v>
+        <v>13.57172394616002</v>
       </c>
       <c r="F5">
-        <v>27.04157896035798</v>
+        <v>19.80758466597025</v>
       </c>
       <c r="G5">
-        <v>3.653358710883375</v>
+        <v>2.105663185536543</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.09170012450013</v>
+        <v>12.89032791191321</v>
       </c>
       <c r="L5">
-        <v>8.227086125390514</v>
+        <v>5.236176249056667</v>
       </c>
       <c r="M5">
-        <v>14.92275759979172</v>
+        <v>9.380264814456927</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.29716186997769</v>
+        <v>16.56896426341956</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.93429227835597</v>
+        <v>11.64401793219362</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.411942366641884</v>
+        <v>4.709771656672479</v>
       </c>
       <c r="E6">
-        <v>20.11699166574055</v>
+        <v>13.57934372162241</v>
       </c>
       <c r="F6">
-        <v>27.04311601856584</v>
+        <v>19.79363168635223</v>
       </c>
       <c r="G6">
-        <v>3.653445998373817</v>
+        <v>2.105885671860107</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.07958483656189</v>
+        <v>12.86344858259512</v>
       </c>
       <c r="L6">
-        <v>8.226497138606868</v>
+        <v>5.228241682991797</v>
       </c>
       <c r="M6">
-        <v>14.92239740772105</v>
+        <v>9.36952522006866</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.30030709254221</v>
+        <v>16.56748792140362</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.95328239995063</v>
+        <v>11.80133351849325</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.424021035466962</v>
+        <v>4.743897490555117</v>
       </c>
       <c r="E7">
-        <v>20.09697996264054</v>
+        <v>13.52680667783183</v>
       </c>
       <c r="F7">
-        <v>27.03306991433585</v>
+        <v>19.8917991972971</v>
       </c>
       <c r="G7">
-        <v>3.652845765114539</v>
+        <v>2.104350440102508</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.16321875486409</v>
+        <v>13.04876241604281</v>
       </c>
       <c r="L7">
-        <v>8.230687632110179</v>
+        <v>5.283246725916296</v>
       </c>
       <c r="M7">
-        <v>14.92508905873581</v>
+        <v>9.44416200912397</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>24.27893977609877</v>
+        <v>16.57890673556984</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.04358745808596</v>
+        <v>12.48360407429173</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.476139623666732</v>
+        <v>4.890638175665718</v>
       </c>
       <c r="E8">
-        <v>20.01343763308261</v>
+        <v>13.30363803434437</v>
       </c>
       <c r="F8">
-        <v>27.00416334442432</v>
+        <v>20.35752649561973</v>
       </c>
       <c r="G8">
-        <v>3.650336216553197</v>
+        <v>2.097796341788262</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.52046203494175</v>
+        <v>13.83450995159188</v>
       </c>
       <c r="L8">
-        <v>8.251691900580097</v>
+        <v>5.523772914499728</v>
       </c>
       <c r="M8">
-        <v>14.94168613251671</v>
+        <v>9.775205699150085</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>24.19615084519073</v>
+        <v>16.65904814484156</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.24309566797308</v>
+        <v>13.76670945008999</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.573861584000065</v>
+        <v>5.163191366337196</v>
       </c>
       <c r="E9">
-        <v>19.86664169152753</v>
+        <v>12.89659369210979</v>
       </c>
       <c r="F9">
-        <v>27.00298472004146</v>
+        <v>21.38594316113527</v>
       </c>
       <c r="G9">
-        <v>3.645911787766255</v>
+        <v>2.085697652979791</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.17469332811047</v>
+        <v>15.25365239879184</v>
       </c>
       <c r="L9">
-        <v>8.301722895108728</v>
+        <v>5.998939226020489</v>
       </c>
       <c r="M9">
-        <v>14.99098847548082</v>
+        <v>10.42510244453523</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>24.07530854811443</v>
+        <v>16.93010270346117</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.40240782205559</v>
+        <v>14.66749470789791</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.642722723291135</v>
+        <v>5.353095876625551</v>
       </c>
       <c r="E10">
-        <v>19.76908209347318</v>
+        <v>12.61565921748553</v>
       </c>
       <c r="F10">
-        <v>27.03594357769093</v>
+        <v>22.20934413426019</v>
       </c>
       <c r="G10">
-        <v>3.6429608554369</v>
+        <v>2.077229189786761</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.62410590861373</v>
+        <v>16.21778551164231</v>
       </c>
       <c r="L10">
-        <v>8.3436879352435</v>
+        <v>6.451111731811516</v>
       </c>
       <c r="M10">
-        <v>15.03722244657734</v>
+        <v>10.89870562995199</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>24.01197171746167</v>
+        <v>17.20458126945388</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.47743299916939</v>
+        <v>15.06683336845236</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.673370132035898</v>
+        <v>5.437049411466531</v>
       </c>
       <c r="E11">
-        <v>19.72691513951083</v>
+        <v>12.49167816758018</v>
       </c>
       <c r="F11">
-        <v>27.05825773411543</v>
+        <v>22.5980648270564</v>
       </c>
       <c r="G11">
-        <v>3.641682804069076</v>
+        <v>2.073458759790812</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.82122223161056</v>
+        <v>16.63874278526403</v>
       </c>
       <c r="L11">
-        <v>8.363866841860879</v>
+        <v>6.647721593177502</v>
       </c>
       <c r="M11">
-        <v>15.06038071077968</v>
+        <v>11.11252566700965</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>23.98870903653292</v>
+        <v>17.3469561524752</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.50619109385529</v>
+        <v>15.21646604085409</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.684874517637495</v>
+        <v>5.468476174349345</v>
       </c>
       <c r="E12">
-        <v>19.71126445556815</v>
+        <v>12.44527022569952</v>
       </c>
       <c r="F12">
-        <v>27.0677563572706</v>
+        <v>22.74724662584156</v>
       </c>
       <c r="G12">
-        <v>3.641208040752569</v>
+        <v>2.072041969380007</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.89477178655833</v>
+        <v>16.79557916064992</v>
       </c>
       <c r="L12">
-        <v>8.371660706813785</v>
+        <v>6.720868270326252</v>
       </c>
       <c r="M12">
-        <v>15.06945129442012</v>
+        <v>11.19320284500797</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>23.98069971286947</v>
+        <v>17.40347444775288</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.4999823759533</v>
+        <v>15.18431181069024</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.682401397148634</v>
+        <v>5.461724288558271</v>
       </c>
       <c r="E13">
-        <v>19.71462103042676</v>
+        <v>12.45524106968925</v>
       </c>
       <c r="F13">
-        <v>27.06566409158013</v>
+        <v>22.71503033081352</v>
       </c>
       <c r="G13">
-        <v>3.641309880762074</v>
+        <v>2.072346624911963</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.87898084494685</v>
+        <v>16.7619164314648</v>
       </c>
       <c r="L13">
-        <v>8.369975439566634</v>
+        <v>6.705172811068764</v>
       </c>
       <c r="M13">
-        <v>15.06748447008438</v>
+        <v>11.17584140230504</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>23.98238907056232</v>
+        <v>17.39118509514363</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.47979209022289</v>
+        <v>15.07917600754648</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.674318652057846</v>
+        <v>5.43964229485811</v>
       </c>
       <c r="E14">
-        <v>19.72562120179586</v>
+        <v>12.48784936071046</v>
       </c>
       <c r="F14">
-        <v>27.059018200215</v>
+        <v>22.61029868031938</v>
       </c>
       <c r="G14">
-        <v>3.641643560742425</v>
+        <v>2.073341984051654</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.82729534595459</v>
+        <v>16.6516974978787</v>
       </c>
       <c r="L14">
-        <v>8.364505014085131</v>
+        <v>6.653765551020642</v>
       </c>
       <c r="M14">
-        <v>15.06112094743925</v>
+        <v>11.11916918410607</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>23.98803406763415</v>
+        <v>17.35155328502147</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.46746964916573</v>
+        <v>15.01456816223519</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.66935446106848</v>
+        <v>5.426068549880787</v>
       </c>
       <c r="E15">
-        <v>19.73240037349471</v>
+        <v>12.50789310151118</v>
       </c>
       <c r="F15">
-        <v>27.05508383841571</v>
+        <v>22.54640407111956</v>
       </c>
       <c r="G15">
-        <v>3.641849147046808</v>
+        <v>2.073953077114223</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.79549285149755</v>
+        <v>16.58384953898211</v>
       </c>
       <c r="L15">
-        <v>8.361173965035533</v>
+        <v>6.622107250070817</v>
       </c>
       <c r="M15">
-        <v>15.05726216814543</v>
+        <v>11.08441620152079</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>23.99159598856398</v>
+        <v>17.32761923513081</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.3975544774483</v>
+        <v>14.64117910772591</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.640705889361009</v>
+        <v>5.347559043893814</v>
       </c>
       <c r="E16">
-        <v>19.77188223448398</v>
+        <v>12.62383780246395</v>
       </c>
       <c r="F16">
-        <v>27.03463229424246</v>
+        <v>22.18422047045447</v>
       </c>
       <c r="G16">
-        <v>3.643045669947981</v>
+        <v>2.077477178259734</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.61107292603508</v>
+        <v>16.18991685856544</v>
       </c>
       <c r="L16">
-        <v>8.342390766197218</v>
+        <v>6.438080006026889</v>
       </c>
       <c r="M16">
-        <v>15.03575138889448</v>
+        <v>10.88469416092378</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>24.01360381410601</v>
+        <v>17.19563658057506</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.35530407135228</v>
+        <v>14.4093763762289</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.622954684498573</v>
+        <v>5.29876154066597</v>
       </c>
       <c r="E17">
-        <v>19.79666908233567</v>
+        <v>12.69593813332673</v>
       </c>
       <c r="F17">
-        <v>27.02395851088659</v>
+        <v>21.96561842310566</v>
       </c>
       <c r="G17">
-        <v>3.643796145254993</v>
+        <v>2.079659534796322</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.49603104637447</v>
+        <v>15.9437069312202</v>
       </c>
       <c r="L17">
-        <v>8.331143946474151</v>
+        <v>6.322857810215993</v>
       </c>
       <c r="M17">
-        <v>15.02309653728487</v>
+        <v>10.76171144171316</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>24.02852759951986</v>
+        <v>17.11921757723418</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.33124428604005</v>
+        <v>14.27507159989997</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.612681070693036</v>
+        <v>5.270466077960381</v>
       </c>
       <c r="E18">
-        <v>19.81113423130384</v>
+        <v>12.73776811732482</v>
       </c>
       <c r="F18">
-        <v>27.01850863065424</v>
+        <v>21.84121943419771</v>
       </c>
       <c r="G18">
-        <v>3.644233857717029</v>
+        <v>2.080922529126157</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.42917484184096</v>
+        <v>15.80043525270675</v>
       </c>
       <c r="L18">
-        <v>8.324777807744987</v>
+        <v>6.255729510585105</v>
       </c>
       <c r="M18">
-        <v>15.01601822688923</v>
+        <v>10.69082518163485</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>24.03763363173513</v>
+        <v>17.07690702843077</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.323140123108</v>
+        <v>14.2294333252634</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.609191792103887</v>
+        <v>5.260846954795273</v>
       </c>
       <c r="E19">
-        <v>19.81606771529568</v>
+        <v>12.75199306980401</v>
       </c>
       <c r="F19">
-        <v>27.01678190397906</v>
+        <v>21.79933104857475</v>
       </c>
       <c r="G19">
-        <v>3.644383101648598</v>
+        <v>2.081351513433741</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.40642177486768</v>
+        <v>15.75164239718491</v>
       </c>
       <c r="L19">
-        <v>8.322640106882282</v>
+        <v>6.232854109329448</v>
       </c>
       <c r="M19">
-        <v>15.01365619459634</v>
+        <v>10.66680046418854</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>24.04080642001848</v>
+        <v>17.06286100896101</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.35977684091456</v>
+        <v>14.43415408499428</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.624850938534634</v>
+        <v>5.303979869699023</v>
       </c>
       <c r="E20">
-        <v>19.79400891960266</v>
+        <v>12.68822575244209</v>
       </c>
       <c r="F20">
-        <v>27.02502342886527</v>
+        <v>21.98875119873483</v>
       </c>
       <c r="G20">
-        <v>3.643715629131695</v>
+        <v>2.079426421587685</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.50834887879225</v>
+        <v>15.97008831469206</v>
       </c>
       <c r="L20">
-        <v>8.332330585553731</v>
+        <v>6.335211958223018</v>
       </c>
       <c r="M20">
-        <v>15.02442295771755</v>
+        <v>10.77481911558612</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>24.02688487109769</v>
+        <v>17.12718176396699</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.48571318830869</v>
+        <v>15.11010065558253</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.676695523383597</v>
+        <v>5.446138314711368</v>
       </c>
       <c r="E21">
-        <v>19.72238159076426</v>
+        <v>12.47825689506282</v>
       </c>
       <c r="F21">
-        <v>27.06094183463517</v>
+        <v>22.64100752983775</v>
       </c>
       <c r="G21">
-        <v>3.641545301328228</v>
+        <v>2.073049331242061</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.84250663058664</v>
+        <v>16.68414147318288</v>
       </c>
       <c r="L21">
-        <v>8.366107703320216</v>
+        <v>6.668900502255644</v>
       </c>
       <c r="M21">
-        <v>15.06298193653284</v>
+        <v>11.13582353753705</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>23.98635427787389</v>
+        <v>17.36312277769538</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.57003706149764</v>
+        <v>15.54258529728945</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.709987893065671</v>
+        <v>5.536916212340024</v>
       </c>
       <c r="E22">
-        <v>19.67741628939232</v>
+        <v>12.34417991441231</v>
       </c>
       <c r="F22">
-        <v>27.09052679199828</v>
+        <v>23.07882392047616</v>
       </c>
       <c r="G22">
-        <v>3.640180511281411</v>
+        <v>2.0689451852706</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.05450446003604</v>
+        <v>17.13582212368792</v>
       </c>
       <c r="L22">
-        <v>8.389070204987249</v>
+        <v>6.87938084284028</v>
       </c>
       <c r="M22">
-        <v>15.0899348582257</v>
+        <v>11.37003782139146</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.96452733418437</v>
+        <v>17.53253850808479</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.52485382152488</v>
+        <v>15.31263413408482</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.692274397688562</v>
+        <v>5.488665682037603</v>
       </c>
       <c r="E23">
-        <v>19.70124650088542</v>
+        <v>12.41545367681936</v>
       </c>
       <c r="F23">
-        <v>27.0741792690541</v>
+        <v>22.84411475503993</v>
       </c>
       <c r="G23">
-        <v>3.640904031825513</v>
+        <v>2.071130095827169</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.94195475061272</v>
+        <v>16.89613246223827</v>
       </c>
       <c r="L23">
-        <v>8.376734877069886</v>
+        <v>6.767737880579423</v>
       </c>
       <c r="M23">
-        <v>15.07539084925948</v>
+        <v>11.2452083024805</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.97574970317759</v>
+        <v>17.44069893580058</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.35775398222737</v>
+        <v>14.42295531005335</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.623993854260383</v>
+        <v>5.301621413087499</v>
       </c>
       <c r="E24">
-        <v>19.79521090981549</v>
+        <v>12.69171134015638</v>
       </c>
       <c r="F24">
-        <v>27.02453984036512</v>
+        <v>21.97828888533618</v>
       </c>
       <c r="G24">
-        <v>3.643752010986175</v>
+        <v>2.079531786068811</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.50278221723841</v>
+        <v>15.95816665301142</v>
       </c>
       <c r="L24">
-        <v>8.33179379483488</v>
+        <v>6.329629406172484</v>
       </c>
       <c r="M24">
-        <v>15.02382266864053</v>
+        <v>10.76889369816876</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>24.02762590980723</v>
+        <v>17.12357610405361</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.18681644787868</v>
+        <v>13.42642770852289</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.547926169633889</v>
+        <v>5.091203126783932</v>
       </c>
       <c r="E25">
-        <v>19.90454010248413</v>
+        <v>13.00348989736005</v>
       </c>
       <c r="F25">
-        <v>26.99735844433715</v>
+        <v>21.09562299540311</v>
       </c>
       <c r="G25">
-        <v>3.647055856390789</v>
+        <v>2.088893871060426</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.00299413224543</v>
+        <v>14.88327264073386</v>
       </c>
       <c r="L25">
-        <v>8.287259732484056</v>
+        <v>5.860723362783179</v>
       </c>
       <c r="M25">
-        <v>14.97587697182565</v>
+        <v>10.24967808789061</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>24.10354032586395</v>
+        <v>16.84395139019114</v>
       </c>
     </row>
   </sheetData>
